--- a/src/Cars/StockReport.xlsx
+++ b/src/Cars/StockReport.xlsx
@@ -377,7 +377,7 @@
     <x:tableColumn id="2" name="YearofManufacture" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="3" name="InsuaranceCompany" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="4" name="CarInsured" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="5" name="FALocationCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="5" name="ChassisNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="6" name="Date_Received" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="7" name="Buying_Price" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
   </x:tableColumns>
@@ -775,7 +775,7 @@
         <x:v>CarInsured</x:v>
       </x:c>
       <x:c r="E1" t="str">
-        <x:v>FALocationCode</x:v>
+        <x:v>ChassisNo</x:v>
       </x:c>
       <x:c r="F1" t="str">
         <x:v>Date_Received</x:v>
